--- a/biology/Botanique/Vernaccia/Vernaccia.xlsx
+++ b/biology/Botanique/Vernaccia/Vernaccia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le nom de vernaccia[1] est porté par différents cépages italiens. On pense qu'il provient du village de Vernazza situé dans le Parc national des Cinque Terre  en Ligurie[2].
+Le nom de vernaccia est porté par différents cépages italiens. On pense qu'il provient du village de Vernazza situé dans le Parc national des Cinque Terre  en Ligurie.
 Cépages à baies noires
 Vernaccia nera
 Cépages à baies blanches
@@ -517,7 +529,9 @@
           <t>Homonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom germanisé de vernatsch s'applique en fait à la schiava grossa ou traminer.
 </t>
@@ -548,7 +562,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de guarnaccia, une variante influencée par le germanique warnōn 'pourvoir', peut se substituer à celui de vernaccia. Il désigne également un cépage spécifique.
 </t>
